--- a/00.Document/06. 일정 관리/일정달력_0.1ver.xlsx
+++ b/00.Document/06. 일정 관리/일정달력_0.1ver.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Documents\GitHub\3DProject\00.Document\06. 일정 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -212,15 +212,6 @@
   <si>
     <t xml:space="preserve">
 PD,정윤,지훈,정현(병관)
-- 기획서 작성
-병관
-- QA 체크리스트, TC
-(지훈 휴가 시작)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PD,정윤,지훈,정현(병관)
 - 기획서 작성 끝
 병관
 - QA 체크리스트, TC</t>
@@ -279,6 +270,39 @@
 - 시스템 버그 확인 및 수정
 정현 - 오브젝트,밸런스 확인 및 수정
 병관 - QA 테스트</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유니티 과제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+PD,정윤,지훈,정현(병관)
+- 기획서 작성
+병관
+- QA 체크리스트, TC
+(지훈 휴가 시작)</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -831,6 +855,60 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="13" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="11" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -841,60 +919,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1883,22 +1907,22 @@
         <f ca="1"/>
         <v>43136</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:11" ht="57.9" customHeight="1">
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2192,22 +2216,22 @@
         <f ca="1"/>
         <v>43409</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2486,22 +2510,22 @@
         <f ca="1"/>
         <v>43437</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2780,22 +2804,22 @@
         <f ca="1"/>
         <v>43465</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3083,22 +3107,22 @@
         <f ca="1"/>
         <v>43164</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3378,22 +3402,22 @@
         <f ca="1"/>
         <v>43192</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3439,8 +3463,8 @@
   </sheetPr>
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.4"/>
@@ -3559,25 +3583,25 @@
         <v>43204</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="90.6" customHeight="1" thickBot="1">
+    <row r="6" spans="2:8" ht="104.4" customHeight="1" thickBot="1">
       <c r="B6" s="9"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
@@ -3585,95 +3609,95 @@
         <f t="array" aca="1" ref="B7:H7" ca="1">요일및주+DATE(달력연도,4,1)-WEEKDAY(DATE(달력연도,4,1),(주시작="Monday")+1)+15</f>
         <v>43205</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="30">
         <f ca="1"/>
         <v>43206</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="30">
         <f ca="1"/>
         <v>43207</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <f ca="1"/>
         <v>43208</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="30">
         <f ca="1"/>
         <v>43209</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="30">
         <f ca="1"/>
         <v>43210</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <f ca="1"/>
         <v>43211</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="58.2" thickBot="1">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B9" s="35">
+      <c r="B9" s="31">
         <f t="array" aca="1" ref="B9:H9" ca="1">요일및주+DATE(달력연도,4,1)-WEEKDAY(DATE(달력연도,4,1),(주시작="Monday")+1)+22</f>
         <v>43212</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="31">
         <f ca="1"/>
         <v>43213</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <f ca="1"/>
         <v>43214</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="31">
         <f ca="1"/>
         <v>43215</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="31">
         <f ca="1"/>
         <v>43216</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="31">
         <f ca="1"/>
         <v>43217</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="31">
         <f ca="1"/>
         <v>43218</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="57.9" customHeight="1" thickBot="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="48" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <f t="array" aca="1" ref="B11:H11" ca="1">요일및주+DATE(달력연도,4,1)-WEEKDAY(DATE(달력연도,4,1),(주시작="Monday")+1)+29</f>
         <v>43219</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <f ca="1"/>
         <v>43220</v>
       </c>
@@ -3699,10 +3723,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="87" thickBot="1">
-      <c r="B12" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3715,22 +3739,22 @@
         <f ca="1"/>
         <v>43227</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4011,22 +4035,22 @@
         <f ca="1"/>
         <v>43255</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4306,22 +4330,22 @@
         <f ca="1"/>
         <v>43283</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4601,22 +4625,22 @@
         <f ca="1"/>
         <v>43318</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4896,22 +4920,22 @@
         <f ca="1"/>
         <v>43346</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5191,22 +5215,22 @@
         <f ca="1"/>
         <v>43374</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
